--- a/biology/Zoologie/Aschiza/Aschiza.xlsx
+++ b/biology/Zoologie/Aschiza/Aschiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aschiza sont une section de l'ordre des diptères, du sous-ordre des Brachycera (mouches muscoïdes aux antennes courtes) et de l'infra-ordre des Muscomorpha.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La section des Aschiza est attribuée, en 1882, à l'entomologiste autrichien Eduard Becher (d) (1856-1886)[2].
-Selon certaines sources[1], ce groupe est obsolète et considéré comme paraphylétique. Pour l’ITIS[3] ces familles sont à ranger directement sous le sous-ordre des Brachycera.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La section des Aschiza est attribuée, en 1882, à l'entomologiste autrichien Eduard Becher (d) (1856-1886).
+Selon certaines sources, ce groupe est obsolète et considéré comme paraphylétique. Pour l’ITIS ces familles sont à ranger directement sous le sous-ordre des Brachycera.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des super-familles et familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 févr. 2013)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 févr. 2013) :
 super-famille Platypezoidea Fallén, 1815
 famille Ironomyiidae McAlpine &amp; Martin, 1966
 famille Lonchopteridae Curtis, 1839
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Eduard Becher, « Zur Kenntniss der Kopfbildung der Dipteren », Wiener Entomologische Zeitung, Vienne, Inconnu, vol. 1,‎ 1882, p. 49–54 (ISSN 1562-0891, OCLC 1769860, DOI 10.5962/BHL.PART.11140, lire en ligne)</t>
         </is>
